--- a/biology/Microbiologie/Oscillatoria/Oscillatoria.xlsx
+++ b/biology/Microbiologie/Oscillatoria/Oscillatoria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oscillatoria est un genre de cyanobactéries (autrefois nommées algues bleues) filamenteuses de la famille des Oscillatoriaceae, ces dénominations font référence aux mouvements oscillants de leurs filaments.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (7 septembre 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (7 septembre 2017) :
 Oscillatoria acus Corda ex Gomont
 Oscillatoria acutiformis Skuja
 Oscillatoria adansonii Vaucher ex Gomont
@@ -857,7 +871,7 @@
 Oscillatoria yamadae Kamat
 Oscillatoria yonedae I.Umezaki
 Oscillatoria zostericola P.Crouan &amp; H.Crouan ex Forti
-Selon Catalogue of Life                                   (7 septembre 2017)[3] :
+Selon Catalogue of Life                                   (7 septembre 2017) :
 Oscillatoria acuminata Gomont
 Oscillatoria acutissima Kuff.
 Oscillatoria amoena Gomont
@@ -916,7 +930,7 @@
 Oscillatoria terebriformis C. A. Agardh, 1827
 Oscillatoria thiebautii
 Oscillatoria willei Gardn.
-Selon ITIS      (7 septembre 2017)[4] :
+Selon ITIS      (7 septembre 2017) :
 Oscillatoria acuminata Gomont
 Oscillatoria acutissima Kuff.
 Oscillatoria amoena Gomont
@@ -975,7 +989,7 @@
 Oscillatoria terebriformis C. A. Agardh, 1827
 Oscillatoria thiebautii
 Oscillatoria willei Gardn.
-Selon World Register of Marine Species                               (7 septembre 2017)[2] :
+Selon World Register of Marine Species                               (7 septembre 2017) :
 Oscillatoria additica N.L.Gardner, 1932
 Oscillatoria aeruginosa C.Agardh, 1817
 Oscillatoria alata Carmichael ex Gomont, 1892
